--- a/src/test/resources/Descriptions/DC_AUT_006_ContabilidadElectronicaTest.xlsx
+++ b/src/test/resources/Descriptions/DC_AUT_006_ContabilidadElectronicaTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810911C-14CD-42F3-97C0-0E9D396B7D62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB571A-FC06-4967-982B-6706BCA9A600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Escenario</t>
   </si>
@@ -167,6 +167,178 @@
   </si>
   <si>
     <t>Paso15</t>
+  </si>
+  <si>
+    <t>Seleccionamos la información de los Logs de la Aplicación||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos la Precarga de  Información en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Consultar||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de  Información en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de Balanzas en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de Folios en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Carga de Journal en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de Reconfile  TSYS en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de Try Balance en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Carga de XML TSYS en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos Carga de EDL en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Front CME en la opción Tipo de Log||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Ingresamos al homePage del Sistema||El sistema muestra la pantalla de Login
+-Indica ruta 
+-Nombre de usuario
+-Contraseña
+-Botón Acceder
+-Botó Cancelar</t>
+  </si>
+  <si>
+    <t>Navegamos en el homePage y entramos a la sección de Herramientas del Menú Principal||El sistema muestra la sección correspondiente a "Herramientas".
+- Carga de Archivos en Landing Zone
+- Carga de CFDIs en Landing Zone
+- Repositorio CME
+- Logs de la Aplicación</t>
+  </si>
+  <si>
+    <t>Ingresamos el Nombre de usuario, Contraseña y Damos Clic en el botón Acceder||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Damos Clic en Firmar a SingleSignOn||Click realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón OK||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Seleccionamos cualquier rol y damos Clic en el botón Seleccionar||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Seleccionamos combo Seleccion de rol||El Sistema muestra el combo Selección de Rol y se presentan los Roles:
+-GENERACION
+-EXTRACCION Y ENVIO
+-ADMINISTRADOR
+-Administrador XMLs
+-Administrador RH
+-Aclarador Estados de Cuenta</t>
+  </si>
+  <si>
+    <t>Ingresamos al Sistema y Damos Clic en la pestaña Administración de XML||El sistema despliega el menú con las siguientes opciones:
+-Generación de XML
+-Listado de XML
+-Catálogo de Cuentas SAT</t>
+  </si>
+  <si>
+    <t>Seleccionamos la opción Generación de XML||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos la opción Auxiliar de Folios||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar la opción AF o FC||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Dar clic en Generar XML||Se genera el XML correctamente</t>
+  </si>
+  <si>
+    <t>Seleccionar Empresa||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Opción Todos en el campo Aplicativo||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Mes||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Año||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionamos la opción Listado de XML||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Todas en el campo Empresa||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar Todos en el campo Aplicativo||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Seleccionar la Fecha más antigua en el campo Periodo Inicial||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Seleccionar la última Fecha posible en el campo Periodo Final||Click realizado exitosamente</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Consultar||El Sistema muestra los XML creados entre los periodos seleccionados</t>
+  </si>
+  <si>
+    <t>Ingresamos al Sistema y Damos Clic en la pestaña Administración de Balanzas||El sistema despliega el menú emergente con las siguientes opciones:
+-Listado de balanzas Empresas Reguladas</t>
+  </si>
+  <si>
+    <t>Seleccionamos la Opción Listado de balanzas Empresas Reguladas||Se muestra la pantalla de Consulta</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Consultar||El Sistema muestra el listado general de las balanzas registradas.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en el sistema y le damos Clic en el Botón Salir||El Sistema muestra en pantalla:
+-Atención 
+-"La sesión se cerró correctamente"
+-y el botón "Ir a incio de sesion"</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Ir a incio de sesion||El Sistema muestra en pantalla:
+-Atención 
+-Para continuar, es necesario firmarse a Single SignOn (Versión del sistema).
+-Botón Firmar a SingleSignOn.</t>
+  </si>
+  <si>
+    <t>Ingresamos en el campo Cuenta, el numero de Cuenta de Tarjeta de Crédito||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Consultar||Se presenta la consulta correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS y Damos Clic en el radio button Cuenta||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC y Dejamos en blanco los campos RFC Receptor||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC y Damos Clic en botón Consultar||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC e Ingresamos 2 RFC´s, en los campos RFC Receptor||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC e Ingresamos 5 RFC´s, en los campos RFC Receptor||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC e Ingresamos 4 RFC´s, en los campos RFC Receptor||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Nos logueamos en la pantalla Consulta XMLs TSYS, seleccionamos el radio button RFC e Ingresamos 3 RFC´s, en los campos RFC Receptor||Paso realizado correctamente.</t>
+  </si>
+  <si>
+    <t>Damos Clic en el botón Consultar||Se presenta la consulta correctamente</t>
   </si>
 </sst>
 </file>
@@ -188,12 +360,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,13 +386,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -222,6 +397,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,20 +689,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -573,13 +761,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -591,16 +779,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -610,116 +798,100 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
@@ -735,7 +907,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1"/>
@@ -758,269 +930,294 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
